--- a/SelectionofRankingsResults.xlsx
+++ b/SelectionofRankingsResults.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a3f08389a68906fb/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dylan\PycharmProjects\NBAContractValueDatabase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E0FDFE2-EFB5-4C4D-BCBF-C8816BD6DAFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987F5429-64E8-447E-BBBF-BF33C761F0D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CB5010A1-047D-46C3-BFC2-C6B0379E83DF}"/>
+    <workbookView xWindow="4596" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{CB5010A1-047D-46C3-BFC2-C6B0379E83DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="1573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="1605">
   <si>
     <t>1/Rookie Scale/Both/Adjusted</t>
   </si>
@@ -4753,6 +4753,102 @@
   </si>
   <si>
     <t>Andrew Wiggins :  4.270801117682898</t>
+  </si>
+  <si>
+    <t>Teams Ranked by Average Value Per Player</t>
+  </si>
+  <si>
+    <t>TOR</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>MIL</t>
+  </si>
+  <si>
+    <t>UTA</t>
+  </si>
+  <si>
+    <t>BOS</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>DEN</t>
+  </si>
+  <si>
+    <t>OKC</t>
+  </si>
+  <si>
+    <t>LAC</t>
+  </si>
+  <si>
+    <t>PHI</t>
+  </si>
+  <si>
+    <t>GSW</t>
+  </si>
+  <si>
+    <t>SAS</t>
+  </si>
+  <si>
+    <t>HOU</t>
+  </si>
+  <si>
+    <t>BRK</t>
+  </si>
+  <si>
+    <t>DET</t>
+  </si>
+  <si>
+    <t>LAL</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>PHO</t>
+  </si>
+  <si>
+    <t>MEM</t>
+  </si>
+  <si>
+    <t>NOP</t>
+  </si>
+  <si>
+    <t>SAC</t>
+  </si>
+  <si>
+    <t>ATL</t>
+  </si>
+  <si>
+    <t>NYK</t>
+  </si>
+  <si>
+    <t>CHO</t>
+  </si>
+  <si>
+    <t>ORL</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>POR</t>
+  </si>
+  <si>
+    <t>WAS</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>CLE</t>
+  </si>
+  <si>
+    <t>Teams Ranked by Total Value on Team</t>
   </si>
 </sst>
 </file>
@@ -5104,10 +5200,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E27D7D-D81F-48B9-BB79-F3BC828CB53A}">
-  <dimension ref="A1:H399"/>
+  <dimension ref="A1:J399"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E31" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5120,9 +5216,11 @@
     <col min="6" max="6" width="36.5546875" customWidth="1"/>
     <col min="7" max="7" width="41.5546875" customWidth="1"/>
     <col min="8" max="8" width="38.6640625" customWidth="1"/>
+    <col min="9" max="9" width="37.44140625" customWidth="1"/>
+    <col min="10" max="10" width="31.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5147,8 +5245,14 @@
       <c r="H1" t="s">
         <v>1530</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -5173,8 +5277,14 @@
       <c r="H2" t="s">
         <v>1531</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>1574</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -5199,8 +5309,14 @@
       <c r="H3" t="s">
         <v>1532</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>1575</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -5225,8 +5341,14 @@
       <c r="H4" t="s">
         <v>1533</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>1576</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -5251,8 +5373,14 @@
       <c r="H5" t="s">
         <v>1534</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -5277,8 +5405,14 @@
       <c r="H6" t="s">
         <v>1535</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -5303,8 +5437,14 @@
       <c r="H7" t="s">
         <v>1536</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -5329,8 +5469,14 @@
       <c r="H8" t="s">
         <v>1537</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>1580</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -5355,8 +5501,14 @@
       <c r="H9" t="s">
         <v>1538</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -5381,8 +5533,14 @@
       <c r="H10" t="s">
         <v>1539</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10" t="s">
+        <v>1582</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -5407,8 +5565,14 @@
       <c r="H11" t="s">
         <v>1540</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -5433,8 +5597,14 @@
       <c r="H12" t="s">
         <v>1541</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -5459,8 +5629,14 @@
       <c r="H13" t="s">
         <v>1542</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -5485,8 +5661,14 @@
       <c r="H14" t="s">
         <v>1543</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14" t="s">
+        <v>1586</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -5511,8 +5693,14 @@
       <c r="H15" t="s">
         <v>1544</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15" t="s">
+        <v>1587</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -5537,8 +5725,14 @@
       <c r="H16" t="s">
         <v>1545</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" t="s">
+        <v>1588</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -5563,8 +5757,14 @@
       <c r="H17" t="s">
         <v>1546</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" t="s">
+        <v>1589</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -5589,8 +5789,14 @@
       <c r="H18" t="s">
         <v>1547</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" t="s">
+        <v>1590</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -5615,8 +5821,14 @@
       <c r="H19" t="s">
         <v>1548</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19" t="s">
+        <v>1591</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -5641,8 +5853,14 @@
       <c r="H20" t="s">
         <v>1549</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20" t="s">
+        <v>1592</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -5667,8 +5885,14 @@
       <c r="H21" t="s">
         <v>1550</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21" t="s">
+        <v>1593</v>
+      </c>
+      <c r="J21" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -5693,8 +5917,14 @@
       <c r="H22" t="s">
         <v>1551</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22" t="s">
+        <v>1594</v>
+      </c>
+      <c r="J22" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -5719,8 +5949,14 @@
       <c r="H23" t="s">
         <v>1552</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23" t="s">
+        <v>1595</v>
+      </c>
+      <c r="J23" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -5745,8 +5981,14 @@
       <c r="H24" t="s">
         <v>1553</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24" t="s">
+        <v>1596</v>
+      </c>
+      <c r="J24" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -5771,8 +6013,14 @@
       <c r="H25" t="s">
         <v>1554</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25" t="s">
+        <v>1597</v>
+      </c>
+      <c r="J25" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -5797,8 +6045,14 @@
       <c r="H26" t="s">
         <v>1555</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26" t="s">
+        <v>1598</v>
+      </c>
+      <c r="J26" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -5823,8 +6077,14 @@
       <c r="H27" t="s">
         <v>1556</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27" t="s">
+        <v>1599</v>
+      </c>
+      <c r="J27" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -5849,8 +6109,14 @@
       <c r="H28" t="s">
         <v>1557</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28" t="s">
+        <v>1600</v>
+      </c>
+      <c r="J28" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -5875,8 +6141,14 @@
       <c r="H29" t="s">
         <v>1558</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29" t="s">
+        <v>1601</v>
+      </c>
+      <c r="J29" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -5901,8 +6173,14 @@
       <c r="H30" t="s">
         <v>1559</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I30" t="s">
+        <v>1602</v>
+      </c>
+      <c r="J30" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -5927,8 +6205,14 @@
       <c r="H31" t="s">
         <v>1560</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31" t="s">
+        <v>1603</v>
+      </c>
+      <c r="J31" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>37</v>
       </c>
